--- a/biology/Zoologie/Ahaetulla/Ahaetulla.xlsx
+++ b/biology/Zoologie/Ahaetulla/Ahaetulla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ahaetulla est un genre de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ahaetulla est un genre de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Asie, de l'Inde à la Corée, et dans de nombreuses îles du Pacifique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Asie, de l'Inde à la Corée, et dans de nombreuses îles du Pacifique.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Toutes les espèces de ce genre ont un corps fin, une queue très longue et une tête triangulaire et allongée. Elles sont principalement de couleur verte mais peuvent être jaunes, orange, grises ou brunes. Elles présentent parfois des motifs noirs ou blancs.
 Leur œil présente une pupille allongée horizontalement, en "trou de serrure", leur offrant une vision binoculaire.
@@ -575,7 +591,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des serpents diurnes et arboricoles, qui vivent dans les forêts humides. Ils se nourrissent principalement de petits lézards mais peuvent également à l'occasion consommer de petits amphibiens ou rongeurs. L'une des espèces, Ahaetulla fronticincta, se nourrit de poissons.
 </t>
@@ -606,7 +624,9 @@
           <t>Venin</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les membres du genre Ahaetulla ont un venin peu toxique en raison de leur régime alimentaire.
 </t>
@@ -637,27 +657,29 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (31 juillet 2021)[2] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (31 juillet 2021) :
 Ahaetulla anomala (Annandale, 1906)
-Ahaetulla borealis Mallik et al., 2020[3]
+Ahaetulla borealis Mallik et al., 2020
 Ahaetulla dispar (Günther, 1864)
-Ahaetulla farnsworthi Mallik et al., 2020[3]
+Ahaetulla farnsworthi Mallik et al., 2020
 Ahaetulla fasciolata (Fischer, 1885)
 Ahaetulla fronticincta (Günther, 1858)
 Ahaetulla isabellina (Wall, 1910)
-Ahaetulla laudankia Deepak et al., 2019[4]
-Ahaetulla malabarica Mallik et al., 2020[3]
+Ahaetulla laudankia Deepak et al., 2019
+Ahaetulla malabarica Mallik et al., 2020
 Ahaetulla mycterizans (Linnaeus, 1758)
 Ahaetulla nasuta (Bonnaterre, 1790)
 Ahaetulla oxyrhyncha (Bell, 1825)
 Ahaetulla perroteti (Duméril &amp; Bibron, 1854)
 Ahaetulla prasina (Boie, 1827)
 Ahaetulla pulverulenta (Duméril &amp; Bibron, 1854)
-Ahaetulla rufusoculara Lam et al., 2021[5]
-Ahaetulla sahyadrensis Mallik et al., 2020[3]
-Ahaetulla travancorica Mallik et al., 2020[3]</t>
+Ahaetulla rufusoculara Lam et al., 2021
+Ahaetulla sahyadrensis Mallik et al., 2020
+Ahaetulla travancorica Mallik et al., 2020</t>
         </is>
       </c>
     </row>
@@ -685,7 +707,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Link, 1807 : Beschreibung der Naturalien-Sammlung der Universität zu Rostock. Zweite Abtheilung, Adlers Erben, Rostock, p. 51-100.</t>
         </is>
